--- a/Documentation.xlsx
+++ b/Documentation.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ews29\Desktop\Ampersan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Locker\AmpersanDev\Ampersan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB1A6139-18C1-4451-85FB-4A32E53A1642}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{747C8FBD-70DA-442B-98FE-D03D6189E511}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="15720" xr2:uid="{2E7A14C8-1E3F-4995-88E4-88E7D2C1B770}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{2E7A14C8-1E3F-4995-88E4-88E7D2C1B770}"/>
   </bookViews>
   <sheets>
     <sheet name="Error codes" sheetId="1" r:id="rId1"/>
-    <sheet name="App Map" sheetId="2" r:id="rId2"/>
+    <sheet name="Versions" sheetId="3" r:id="rId2"/>
+    <sheet name="App Map" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="30">
   <si>
     <t>Error Codes</t>
   </si>
@@ -74,6 +75,57 @@
   </si>
   <si>
     <t>Ampersan App Map</t>
+  </si>
+  <si>
+    <t>Version Codes</t>
+  </si>
+  <si>
+    <t>Changes Made</t>
+  </si>
+  <si>
+    <t>0.0.1</t>
+  </si>
+  <si>
+    <t>0.0.2</t>
+  </si>
+  <si>
+    <t>0.0.3</t>
+  </si>
+  <si>
+    <t>0.0.4</t>
+  </si>
+  <si>
+    <t>0.0.5</t>
+  </si>
+  <si>
+    <t>0.0.6</t>
+  </si>
+  <si>
+    <t>0.0.7</t>
+  </si>
+  <si>
+    <t>0.0.8</t>
+  </si>
+  <si>
+    <t>0.0.9</t>
+  </si>
+  <si>
+    <t>0.1.0</t>
+  </si>
+  <si>
+    <t>Added basic animation</t>
+  </si>
+  <si>
+    <t>Added basic UI / UX</t>
+  </si>
+  <si>
+    <t>Added Login UI / UX</t>
+  </si>
+  <si>
+    <t>Added SettingsInsetNavbar</t>
+  </si>
+  <si>
+    <t>Added SettingsMainContent div</t>
   </si>
 </sst>
 </file>
@@ -1506,7 +1558,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E2E4436-FD9B-4F48-82D6-954BB702E278}">
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
@@ -1724,6 +1776,128 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A84E4DB-519F-4807-9CE2-FE20F4190DAA}">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.140625" customWidth="1"/>
+    <col min="3" max="3" width="36.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A9C2AF6-C003-4BA8-A58C-BEF760BE5E67}">
   <dimension ref="A1:G26"/>
   <sheetViews>

--- a/Documentation.xlsx
+++ b/Documentation.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Locker\AmpersanDev\Ampersan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Ampersan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{747C8FBD-70DA-442B-98FE-D03D6189E511}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E294C36-EC69-4600-84E6-1D4B21CBB216}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{2E7A14C8-1E3F-4995-88E4-88E7D2C1B770}"/>
+    <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="15720" activeTab="1" xr2:uid="{2E7A14C8-1E3F-4995-88E4-88E7D2C1B770}"/>
   </bookViews>
   <sheets>
     <sheet name="Error codes" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="31">
   <si>
     <t>Error Codes</t>
   </si>
@@ -126,6 +126,9 @@
   </si>
   <si>
     <t>Added SettingsMainContent div</t>
+  </si>
+  <si>
+    <t>Fixed Navbar Position Errors</t>
   </si>
 </sst>
 </file>
@@ -1780,7 +1783,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1858,6 +1861,9 @@
       </c>
       <c r="B7" t="s">
         <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
